--- a/working.xlsx
+++ b/working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8D1C7-F13A-4F80-9F10-9C9B856B1526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672AFC4F-94AB-4F42-8CCA-06921A3B8E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>oomp_id</t>
   </si>
@@ -98,6 +98,81 @@
   </si>
   <si>
     <t>hardware_washer_m3_penny</t>
+  </si>
+  <si>
+    <t>webpage_distributor_orbital_fasteners</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-6-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-8-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-10-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-12-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-16-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-20-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-25-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-30-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-35-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3x5---socket-cap-hd-</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-6-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-8-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-10-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-12-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-16-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-20-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-25-socket-cap-screw-high-tensile-grade-12-9-self-colour-</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-30-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-35-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-40-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-50-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-mild-steel-hexagon-full-nuts-bright-zinc-plated</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-mild-steel-form-a-flat-washer-bright-zinc-plated-din-125-1a-3-2x7x05mm-</t>
+  </si>
+  <si>
+    <t>https://www.orbitalfasteners.co.uk/products/m3-x-12-x-0-8mm-penny-mudguard-repair-washer-mild-steel-bright-zinc-plated-din-9021</t>
   </si>
 </sst>
 </file>
@@ -449,23 +524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7765729-36FB-440B-90DE-B2240049BB5A}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="62.42578125" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+    <col min="6" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -496,13 +569,16 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="D2" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A2&amp;"_mm_length_hex_head"</f>
+        <f t="shared" ref="D2:D10" si="0">"hardware_screw_countersunk_m3_black_"&amp;A2&amp;"_mm_length_hex_head"</f>
         <v>hardware_screw_countersunk_m3_black_6_mm_length_hex_head</v>
       </c>
       <c r="E2">
@@ -523,13 +599,16 @@
       <c r="J2">
         <v>1.5599999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="D3" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A3&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_8_mm_length_hex_head</v>
       </c>
       <c r="E3">
@@ -550,13 +629,16 @@
       <c r="J3">
         <v>1.5800000000000002E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="D4" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A4&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_10_mm_length_hex_head</v>
       </c>
       <c r="E4">
@@ -577,13 +659,16 @@
       <c r="J4">
         <v>1.6299999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="D5" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A5&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_12_mm_length_hex_head</v>
       </c>
       <c r="E5">
@@ -604,13 +689,16 @@
       <c r="J5">
         <v>1.6799999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="D6" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A6&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_16_mm_length_hex_head</v>
       </c>
       <c r="E6">
@@ -631,13 +719,16 @@
       <c r="J6">
         <v>1.9900000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="D7" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A7&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_20_mm_length_hex_head</v>
       </c>
       <c r="E7">
@@ -658,13 +749,16 @@
       <c r="J7">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
       <c r="D8" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A8&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_25_mm_length_hex_head</v>
       </c>
       <c r="E8">
@@ -685,13 +779,16 @@
       <c r="J8">
         <v>2.35E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="D9" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A9&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_30_mm_length_hex_head</v>
       </c>
       <c r="E9">
@@ -712,13 +809,16 @@
       <c r="J9">
         <v>2.6800000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
       <c r="D10" t="str">
-        <f>"hardware_screw_countersunk_m3_black_"&amp;A10&amp;"_mm_length_hex_head"</f>
+        <f t="shared" si="0"/>
         <v>hardware_screw_countersunk_m3_black_35_mm_length_hex_head</v>
       </c>
       <c r="E10">
@@ -739,8 +839,11 @@
       <c r="J10">
         <v>6.4500000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -766,8 +869,11 @@
       <c r="J11">
         <v>1.8700000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -793,13 +899,16 @@
       <c r="J12">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:D22" si="0">"hardware_screw_socket_cap_m3_black_"&amp;A13&amp;"_mm_length_hex_head"</f>
+        <f t="shared" ref="D13:D22" si="1">"hardware_screw_socket_cap_m3_black_"&amp;A13&amp;"_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
       </c>
       <c r="E13">
@@ -820,13 +929,16 @@
       <c r="J13">
         <v>1.8700000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
       </c>
       <c r="E14">
@@ -847,13 +959,16 @@
       <c r="J14">
         <v>1.8700000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
       </c>
       <c r="E15">
@@ -874,13 +989,16 @@
       <c r="J15">
         <v>1.9599999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
       </c>
       <c r="E16">
@@ -901,13 +1019,16 @@
       <c r="J16">
         <v>2.0799999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
       </c>
       <c r="E17">
@@ -928,13 +1049,16 @@
       <c r="J17">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
       </c>
       <c r="E18">
@@ -955,13 +1079,16 @@
       <c r="J18">
         <v>2.6599999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
       </c>
       <c r="E19">
@@ -982,13 +1109,16 @@
       <c r="J19">
         <v>3.09E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
       </c>
       <c r="E20">
@@ -1009,13 +1139,16 @@
       <c r="J20">
         <v>3.3599999999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
       </c>
       <c r="E21">
@@ -1036,13 +1169,16 @@
       <c r="J21">
         <v>3.7600000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
       </c>
       <c r="E22">
@@ -1063,8 +1199,11 @@
       <c r="J22">
         <v>5.6800000000000003E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1225,11 @@
       <c r="J23">
         <v>1.6000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>11</v>
       </c>
@@ -1104,13 +1246,16 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="I24">
-        <v>3.5999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J24">
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>12</v>
       </c>
@@ -1131,6 +1276,9 @@
       </c>
       <c r="J25">
         <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1151,8 +1299,8 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3">"[" &amp; _xlfn.TEXTJOIN(",", TRUE, "'" &amp; data!E11:E22 &amp; "'") &amp; "]"</f>
-        <v>['1890620','1891000','1891010','1891020','1891030','1891040','1891050','1891052','1891054','1891056','1891057','1891058']</v>
+        <f t="array" ref="B3">"[" &amp; _xlfn.TEXTJOIN(",", TRUE, "'" &amp; data!E2:E25 &amp; "'") &amp; "]"</f>
+        <v>['1901000','1901010','1901020','1901030','1901040','1901050','1901051','1901052','1901054','1890620','1891000','1891010','1891020','1891030','1891040','1891050','1891052','1891054','1891056','1891057','1891058','1771000','1711000','1731000']</v>
       </c>
     </row>
   </sheetData>

--- a/working.xlsx
+++ b/working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672AFC4F-94AB-4F42-8CCA-06921A3B8E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07496DE2-E17B-49AF-B5E5-726441272861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="663" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>oomp_id</t>
   </si>
@@ -76,21 +76,6 @@
     <t>part_number_distributor_orbital_fasteners</t>
   </si>
   <si>
-    <t>price_1_distributor_orbital_fasteners</t>
-  </si>
-  <si>
-    <t>price_100_distributor_orbital_fasteners</t>
-  </si>
-  <si>
-    <t>price_200_distributor_orbital_fasteners</t>
-  </si>
-  <si>
-    <t>price_1000_distributor_orbital_fasteners</t>
-  </si>
-  <si>
-    <t>price_10000_distributor_orbital_fasteners</t>
-  </si>
-  <si>
     <t>hardware_nut_m3</t>
   </si>
   <si>
@@ -100,79 +85,97 @@
     <t>hardware_washer_m3_penny</t>
   </si>
   <si>
-    <t>webpage_distributor_orbital_fasteners</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-6-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-8-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-10-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-12-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-16-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-20-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-25-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-30-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-35-socket-screw-countersunk-high-tensile-grade-10-9-self-colour-din-7991</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3x5---socket-cap-hd-</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-6-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-8-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-10-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-12-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-16-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-20-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-25-socket-cap-screw-high-tensile-grade-12-9-self-colour-</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-30-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-35-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-40-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-50-socket-cap-screw-high-tensile-grade-12-9-self-colour</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-mild-steel-hexagon-full-nuts-bright-zinc-plated</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-mild-steel-form-a-flat-washer-bright-zinc-plated-din-125-1a-3-2x7x05mm-</t>
-  </si>
-  <si>
-    <t>https://www.orbitalfasteners.co.uk/products/m3-x-12-x-0-8mm-penny-mudguard-repair-washer-mild-steel-bright-zinc-plated-din-9021</t>
+    <t>part_number_manufacturer_metalmate</t>
+  </si>
+  <si>
+    <t>Z0322M39</t>
+  </si>
+  <si>
+    <t>0412T39</t>
+  </si>
+  <si>
+    <t>1150M390006</t>
+  </si>
+  <si>
+    <t>1150M390018</t>
+  </si>
+  <si>
+    <t>1150M390008</t>
+  </si>
+  <si>
+    <t>1150M390010</t>
+  </si>
+  <si>
+    <t>1150M390012</t>
+  </si>
+  <si>
+    <t>1150M390016</t>
+  </si>
+  <si>
+    <t>1150M390020</t>
+  </si>
+  <si>
+    <t>1150M390025</t>
+  </si>
+  <si>
+    <t>1150M390030</t>
+  </si>
+  <si>
+    <t>1150M390035</t>
+  </si>
+  <si>
+    <t>1150M390040</t>
+  </si>
+  <si>
+    <t>1150M390045</t>
+  </si>
+  <si>
+    <t>1150M390050</t>
+  </si>
+  <si>
+    <t>1150M390060</t>
+  </si>
+  <si>
+    <t>1151M390006</t>
+  </si>
+  <si>
+    <t>1151M390008</t>
+  </si>
+  <si>
+    <t>1151M390010</t>
+  </si>
+  <si>
+    <t>1151M390012</t>
+  </si>
+  <si>
+    <t>1151M390020</t>
+  </si>
+  <si>
+    <t>1150M390004</t>
+  </si>
+  <si>
+    <t>1150M390005</t>
+  </si>
+  <si>
+    <t>1151M390016</t>
+  </si>
+  <si>
+    <t>1151M390025</t>
+  </si>
+  <si>
+    <t>1151M390030</t>
+  </si>
+  <si>
+    <t>1151M390035</t>
+  </si>
+  <si>
+    <t>distributor_current</t>
+  </si>
+  <si>
+    <t>orbital_fasteners</t>
+  </si>
+  <si>
+    <t>quantity_current</t>
   </si>
 </sst>
 </file>
@@ -524,21 +527,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7765729-36FB-440B-90DE-B2240049BB5A}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="62.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="39" customWidth="1"/>
+    <col min="5" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="66.28515625" customWidth="1"/>
+    <col min="13" max="13" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -555,25 +564,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -584,26 +584,17 @@
       <c r="E2">
         <v>1901000</v>
       </c>
-      <c r="F2">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="G2">
-        <v>3.5099999999999999E-2</v>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>1.95E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="J2">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -614,26 +605,17 @@
       <c r="E3">
         <v>1901010</v>
       </c>
-      <c r="F3">
-        <v>3.56E-2</v>
-      </c>
-      <c r="G3">
-        <v>3.56E-2</v>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="I3">
-        <v>1.78E-2</v>
-      </c>
-      <c r="J3">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -644,26 +626,17 @@
       <c r="E4">
         <v>1901020</v>
       </c>
-      <c r="F4">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="G4">
-        <v>3.6700000000000003E-2</v>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="I4">
-        <v>1.83E-2</v>
-      </c>
-      <c r="J4">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -674,26 +647,17 @@
       <c r="E5">
         <v>1901030</v>
       </c>
-      <c r="F5">
-        <v>3.78E-2</v>
-      </c>
-      <c r="G5">
-        <v>3.78E-2</v>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I5">
-        <v>1.89E-2</v>
-      </c>
-      <c r="J5">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -704,26 +668,17 @@
       <c r="E6">
         <v>1901040</v>
       </c>
-      <c r="F6">
-        <v>4.48E-2</v>
-      </c>
-      <c r="G6">
-        <v>4.48E-2</v>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="I6">
-        <v>2.24E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -734,26 +689,17 @@
       <c r="E7">
         <v>1901050</v>
       </c>
-      <c r="F7">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.1799999999999999E-2</v>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="I7">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="J7">
-        <v>2.3E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -764,26 +710,17 @@
       <c r="E8">
         <v>1901051</v>
       </c>
-      <c r="F8">
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="G8">
-        <v>5.2900000000000003E-2</v>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="I8">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="J8">
-        <v>2.35E-2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -794,26 +731,17 @@
       <c r="E9">
         <v>1901052</v>
       </c>
-      <c r="F9">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="G9">
-        <v>6.0400000000000002E-2</v>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="I9">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="J9">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
@@ -824,461 +752,386 @@
       <c r="E10">
         <v>1901054</v>
       </c>
-      <c r="F10">
-        <v>0.14530000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.14530000000000001</v>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="I10">
-        <v>7.2599999999999998E-2</v>
-      </c>
-      <c r="J10">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="str">
         <f>"hardware_screw_socket_cap_m3_black_"&amp;A11&amp;"_mm_length_hex_head"</f>
-        <v>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</v>
-      </c>
-      <c r="E11">
-        <v>1890620</v>
-      </c>
-      <c r="F11">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="G11">
-        <v>4.2099999999999999E-2</v>
+        <v>hardware_screw_socket_cap_m3_black_4_mm_length_hex_head</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
       </c>
       <c r="H11">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="I11">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="J11">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="str">
         <f>"hardware_screw_socket_cap_m3_black_"&amp;A12&amp;"_mm_length_hex_head"</f>
+        <v>hardware_screw_socket_cap_m3_black_5_mm_length_hex_head</v>
+      </c>
+      <c r="E12">
+        <v>1890620</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"hardware_screw_socket_cap_m3_black_"&amp;A13&amp;"_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_6_mm_length_hex_head</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1891000</v>
       </c>
-      <c r="F12">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="G12">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H12">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="I12">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="J12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" ref="D13:D22" si="1">"hardware_screw_socket_cap_m3_black_"&amp;A13&amp;"_mm_length_hex_head"</f>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D26" si="1">"hardware_screw_socket_cap_m3_black_"&amp;A14&amp;"_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1891010</v>
       </c>
-      <c r="F13">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="G13">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="H13">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="J13">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>10</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1891020</v>
       </c>
-      <c r="F14">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="G14">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="H14">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="I14">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="J14">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>1891030</v>
       </c>
-      <c r="F15">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="G15">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="H15">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I15">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="J15">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>1891040</v>
       </c>
-      <c r="F16">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G16">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H16">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="I16">
-        <v>2.35E-2</v>
-      </c>
-      <c r="J16">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>hardware_screw_socket_cap_m3_black_18_mm_length_hex_head</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>1891050</v>
       </c>
-      <c r="F17">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="G17">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="H17">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="I17">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="J17">
-        <v>2.3E-2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>25</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>1891052</v>
       </c>
-      <c r="F18">
-        <v>0.06</v>
-      </c>
-      <c r="G18">
-        <v>0.06</v>
-      </c>
-      <c r="H18">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.03</v>
-      </c>
-      <c r="J18">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>30</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>1891054</v>
       </c>
-      <c r="F19">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="G19">
-        <v>6.9699999999999998E-2</v>
-      </c>
-      <c r="H19">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="I19">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="J19">
-        <v>3.09E-2</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>35</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>1891056</v>
       </c>
-      <c r="F20">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="G20">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="H20">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I20">
-        <v>3.78E-2</v>
-      </c>
-      <c r="J20">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>40</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>1891057</v>
       </c>
-      <c r="F21">
-        <v>8.48E-2</v>
-      </c>
-      <c r="G21">
-        <v>8.48E-2</v>
-      </c>
-      <c r="H21">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="I21">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="J21">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>45</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>50</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="1"/>
         <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>1891058</v>
       </c>
-      <c r="F22">
-        <v>0.128</v>
-      </c>
-      <c r="G22">
-        <v>0.128</v>
-      </c>
-      <c r="H22">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="I22">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="J22">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>60</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1771000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>1711000</v>
+      </c>
+      <c r="F28" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
-        <v>1771000</v>
-      </c>
-      <c r="F23">
-        <v>3.8E-3</v>
-      </c>
-      <c r="G23">
-        <v>3.8E-3</v>
-      </c>
-      <c r="H23">
-        <v>3.8E-3</v>
-      </c>
-      <c r="I23">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J23">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>1711000</v>
-      </c>
-      <c r="F24">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="G24">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="H24">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="I24">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="J24">
-        <v>1.8E-3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
         <v>1731000</v>
       </c>
-      <c r="F25">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="G25">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="H25">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="I25">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="J25">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>37</v>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1152,8 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3">"[" &amp; _xlfn.TEXTJOIN(",", TRUE, "'" &amp; data!E2:E25 &amp; "'") &amp; "]"</f>
-        <v>['1901000','1901010','1901020','1901030','1901040','1901050','1901051','1901052','1901054','1890620','1891000','1891010','1891020','1891030','1891040','1891050','1891052','1891054','1891056','1891057','1891058','1771000','1711000','1731000']</v>
+        <f t="array" ref="B3">"[" &amp; _xlfn.TEXTJOIN(",", TRUE, "'" &amp; data!F2:F29 &amp; "'") &amp; "]"</f>
+        <v>['1151M390006','1151M390008','1151M390010','1151M390012','1151M390016','1151M390020','1151M390025','1151M390030','1151M390035','1150M390004','1150M390005','1150M390006','1150M390008','1150M390010','1150M390012','1150M390016','1150M390018','1150M390020','1150M390025','1150M390030','1150M390035','1150M390040','1150M390045','1150M390050','1150M390060','Z0322M39','0412T39','']</v>
       </c>
     </row>
   </sheetData>

--- a/working.xlsx
+++ b/working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07496DE2-E17B-49AF-B5E5-726441272861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108F62F-9E9B-48D7-B954-F5DC08E36320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="663" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="663" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>oomp_id</t>
   </si>
@@ -176,6 +176,21 @@
   </si>
   <si>
     <t>quantity_current</t>
+  </si>
+  <si>
+    <t>project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth</t>
+  </si>
+  <si>
+    <t>project_bolt_tray_capacity_oobb_2_5_width_2_length_18_mm_depth</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weight_10</t>
+  </si>
+  <si>
+    <t>project_bolt_tray_capacity_oobb_4_width_2_5_length_18_mm_depth_weight</t>
   </si>
 </sst>
 </file>
@@ -527,27 +542,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7765729-36FB-440B-90DE-B2240049BB5A}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="62.42578125" customWidth="1"/>
     <col min="5" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="66.28515625" customWidth="1"/>
-    <col min="13" max="13" width="67.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -572,8 +588,23 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -593,8 +624,26 @@
       <c r="H2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>150</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J3" si="1">IF(I2&lt;&gt;"",I2*M2,"")</f>
+        <v>53.699999999999996</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K29" si="2">IF(I2&lt;&gt;"",I2/2,"")</f>
+        <v>75</v>
+      </c>
+      <c r="M2">
+        <f>IF(N2&lt;&gt;"",N2/10,"")</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N2">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -614,8 +663,26 @@
       <c r="H3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>53.4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M29" si="3">IF(N3&lt;&gt;"",N3/10,"")</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="N3">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -635,8 +702,26 @@
       <c r="H4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>110</v>
+      </c>
+      <c r="J4">
+        <f>IF(I4&lt;&gt;"",I4*M4,"")</f>
+        <v>57.64</v>
+      </c>
+      <c r="K4">
+        <f>IF(I4&lt;&gt;"",I4/2,"")</f>
+        <v>55</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="N4">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -656,8 +741,26 @@
       <c r="H5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J29" si="4">IF(I5&lt;&gt;"",I5*M5,"")</f>
+        <v>54.72</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K29" si="5">IF(I5&lt;&gt;"",I5/2,"")</f>
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="N5">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -677,8 +780,26 @@
       <c r="H6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>48.16</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="N6">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -698,8 +819,26 @@
       <c r="H7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>48.250000000000007</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="N7">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -719,8 +858,26 @@
       <c r="H8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>47.84</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1.1960000000000002</v>
+      </c>
+      <c r="N8">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -740,8 +897,20 @@
       <c r="H9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
@@ -761,8 +930,20 @@
       <c r="H10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -779,8 +960,20 @@
       <c r="H11">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -800,8 +993,20 @@
       <c r="H12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -821,13 +1026,25 @@
       <c r="H13">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:D26" si="1">"hardware_screw_socket_cap_m3_black_"&amp;A14&amp;"_mm_length_hex_head"</f>
+        <f t="shared" ref="D14:D26" si="6">"hardware_screw_socket_cap_m3_black_"&amp;A14&amp;"_mm_length_hex_head"</f>
         <v>hardware_screw_socket_cap_m3_black_8_mm_length_hex_head</v>
       </c>
       <c r="E14">
@@ -842,13 +1059,25 @@
       <c r="H14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_10_mm_length_hex_head</v>
       </c>
       <c r="E15">
@@ -863,13 +1092,25 @@
       <c r="H15">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_12_mm_length_hex_head</v>
       </c>
       <c r="E16">
@@ -884,13 +1125,25 @@
       <c r="H16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_16_mm_length_hex_head</v>
       </c>
       <c r="E17">
@@ -905,13 +1158,25 @@
       <c r="H17">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_18_mm_length_hex_head</v>
       </c>
       <c r="F18" t="s">
@@ -923,13 +1188,25 @@
       <c r="H18">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_20_mm_length_hex_head</v>
       </c>
       <c r="E19">
@@ -944,13 +1221,25 @@
       <c r="H19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_25_mm_length_hex_head</v>
       </c>
       <c r="E20">
@@ -965,13 +1254,25 @@
       <c r="H20">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_30_mm_length_hex_head</v>
       </c>
       <c r="E21">
@@ -986,13 +1287,25 @@
       <c r="H21">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_35_mm_length_hex_head</v>
       </c>
       <c r="E22">
@@ -1007,13 +1320,25 @@
       <c r="H22">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>40</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_40_mm_length_hex_head</v>
       </c>
       <c r="E23">
@@ -1028,13 +1353,25 @@
       <c r="H23">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>45</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_45_mm_length_hex_head</v>
       </c>
       <c r="F24" t="s">
@@ -1046,13 +1383,25 @@
       <c r="H24">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_50_mm_length_hex_head</v>
       </c>
       <c r="E25">
@@ -1067,13 +1416,25 @@
       <c r="H25">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>60</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>hardware_screw_socket_cap_m3_black_60_mm_length_hex_head</v>
       </c>
       <c r="F26" t="s">
@@ -1085,8 +1446,20 @@
       <c r="H26">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>5</v>
       </c>
@@ -1102,8 +1475,27 @@
       <c r="H27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>250</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>79.666666666666671</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0.31866666666666671</v>
+      </c>
+      <c r="N27">
+        <f>9.56/3</f>
+        <v>3.186666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -1119,8 +1511,20 @@
       <c r="H28">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>7</v>
       </c>
@@ -1132,6 +1536,18 @@
       </c>
       <c r="H29">
         <v>100</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/working.xlsx
+++ b/working.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\oomlout_oomp_data_injector_bolt_part_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108F62F-9E9B-48D7-B954-F5DC08E36320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A904AD9-D4B0-44CA-9894-01D27862C6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="663" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
+    <workbookView xWindow="-120" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="663" xr2:uid="{DCBA3757-F7A1-4A2C-ACBE-5F08E35168FF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +548,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>53.699999999999996</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K29" si="2">IF(I2&lt;&gt;"",I2/2,"")</f>
+        <f t="shared" ref="K2:K3" si="2">IF(I2&lt;&gt;"",I2/2,"")</f>
         <v>75</v>
       </c>
       <c r="M2">
@@ -785,7 +785,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>48.16</v>
+        <v>53.76</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
@@ -793,10 +793,10 @@
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>0.68799999999999994</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="N6">
-        <v>6.88</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
